--- a/data/michelin_catalog.xlsx
+++ b/data/michelin_catalog.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="390" windowWidth="15915" windowHeight="7320"/>
+    <workbookView xWindow="600" yWindow="390" windowWidth="15915" windowHeight="7320" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$E$1:$E$597</definedName>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6248" uniqueCount="1990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6724" uniqueCount="2228">
   <si>
     <t>');</t>
   </si>
@@ -6191,6 +6192,720 @@
   </si>
   <si>
     <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '回力 255/45R18 R35 W15371');</t>
+  </si>
+  <si>
+    <t>路航 165/70R13 79H LS188</t>
+  </si>
+  <si>
+    <t>路航 165/65R13 77H LS188</t>
+  </si>
+  <si>
+    <t>路航 165/70R14 81H LS188</t>
+  </si>
+  <si>
+    <t>路航 165/65R14 79H LS188</t>
+  </si>
+  <si>
+    <t>路航 175/70R13 82H LS188</t>
+  </si>
+  <si>
+    <t>路航 175/70R14 82H LS188</t>
+  </si>
+  <si>
+    <t>路航 175/65R14 82H LS188</t>
+  </si>
+  <si>
+    <t>路航 185/60R14 82H LS188</t>
+  </si>
+  <si>
+    <t>路航 185/70R14 82H LS188</t>
+  </si>
+  <si>
+    <t>路航 205/60R15 91H LS188</t>
+  </si>
+  <si>
+    <t>路航 195/60R14 86H LS188</t>
+  </si>
+  <si>
+    <t>路航 185/65R15 88V LS188</t>
+  </si>
+  <si>
+    <t>路航 195/60R15 88V LS188</t>
+  </si>
+  <si>
+    <t>路航 195/65R15 91V LS188</t>
+  </si>
+  <si>
+    <t>路航 195/70R14 91H LS288</t>
+  </si>
+  <si>
+    <t>路航 205/70R14 98H/XL LS288</t>
+  </si>
+  <si>
+    <t>路航 215/70R15 98H LS288</t>
+  </si>
+  <si>
+    <t>路航 215/75R15 100H CLV3</t>
+  </si>
+  <si>
+    <t>路航 LH 235/75R15(100T CLV3)</t>
+  </si>
+  <si>
+    <t>路航 245/70R16 111T XL CLV3</t>
+  </si>
+  <si>
+    <t>路航 265/70R16 112T CLV3</t>
+  </si>
+  <si>
+    <t>路航 175/70R14 88H LS388</t>
+  </si>
+  <si>
+    <t>路航 185/65R14  86H LS388</t>
+  </si>
+  <si>
+    <t>路航 175/65R14 82H LS388</t>
+  </si>
+  <si>
+    <t>路航 175/65R15 84H LS388</t>
+  </si>
+  <si>
+    <t>路航 185/60R15 84H LS388</t>
+  </si>
+  <si>
+    <t>路航 185/65R15 88H LS388</t>
+  </si>
+  <si>
+    <t>路航 LH 185/55R16(85V LS388)</t>
+  </si>
+  <si>
+    <t>路航 LH 195/55R16(91W LS388)</t>
+  </si>
+  <si>
+    <t>路航 195/55R15 85V LS388</t>
+  </si>
+  <si>
+    <t>路航 195/60R15 88V LS388</t>
+  </si>
+  <si>
+    <t>路航 195/65R15 91V LS388</t>
+  </si>
+  <si>
+    <t>路航 205/65R15 94H LS388</t>
+  </si>
+  <si>
+    <t>路航 195/60R16 89H LS388</t>
+  </si>
+  <si>
+    <t>路航 205/60R15 91V LS388</t>
+  </si>
+  <si>
+    <t>路航 205/55R16 91W LS388</t>
+  </si>
+  <si>
+    <t>路航 205/45R17 88W LS388</t>
+  </si>
+  <si>
+    <t>路航 205/60R16 92V LS388</t>
+  </si>
+  <si>
+    <t>路航 205/65R16  95V LS388</t>
+  </si>
+  <si>
+    <t>路航 215/55R16 97W/XL LS388</t>
+  </si>
+  <si>
+    <t>路航 215/60R16 95V LS388</t>
+  </si>
+  <si>
+    <t>路航 215/60R17 100V LS388</t>
+  </si>
+  <si>
+    <t>路航 225/60R18 104V LS388</t>
+  </si>
+  <si>
+    <t>路航 215/50R17 95W LS388</t>
+  </si>
+  <si>
+    <t>路航 215/65R16 98H LS388</t>
+  </si>
+  <si>
+    <t>路航 225/55R16 99W/XL LS388</t>
+  </si>
+  <si>
+    <t>路航 225/60R16 98H LS388</t>
+  </si>
+  <si>
+    <t>路航 215/55ZR17 98W LS388</t>
+  </si>
+  <si>
+    <t>路航 225/50ZR17 98W/XL LS388</t>
+  </si>
+  <si>
+    <t>路航 225/55R17 101W XL LS388</t>
+  </si>
+  <si>
+    <t>路航 185R14C-8PR LSV88</t>
+  </si>
+  <si>
+    <t>路航 195R14C-8PR LSV88</t>
+  </si>
+  <si>
+    <t>路航 195/70R15C-8PR LSV88</t>
+  </si>
+  <si>
+    <t>路航 235/65R16C-8PR LSV88</t>
+  </si>
+  <si>
+    <t>路航 165/70R14LT-6PR LSV98</t>
+  </si>
+  <si>
+    <t>路航 175/70R14LT-6PR LSV98</t>
+  </si>
+  <si>
+    <t>路航 175R14LT-6PR LSV98</t>
+  </si>
+  <si>
+    <t>路航 LT225/75R15-6PR CLV1</t>
+  </si>
+  <si>
+    <t>路航 LT235/75R15-6PR CLV1</t>
+  </si>
+  <si>
+    <t>路航 245/70R16 111T/XL CLV1</t>
+  </si>
+  <si>
+    <t>路航 265/70R16 112H CLV1</t>
+  </si>
+  <si>
+    <t>路航 235/60R16 100H CLV2</t>
+  </si>
+  <si>
+    <t>路航 225/60R17 99H CLV2</t>
+  </si>
+  <si>
+    <t>路航 225/65R17 102H CLV2</t>
+  </si>
+  <si>
+    <t>路航 235/55R17 99V CLV2</t>
+  </si>
+  <si>
+    <t>路航 235/65R17 108H/XL CLV2</t>
+  </si>
+  <si>
+    <t>路航 265/65R17 112H CLV2</t>
+  </si>
+  <si>
+    <t>路航 235/55R18(104V XL CLV2)</t>
+  </si>
+  <si>
+    <t>路航 235/60R18(107V CLV2)</t>
+  </si>
+  <si>
+    <t>路航 205/40ZR17(84/XLW LS988)</t>
+  </si>
+  <si>
+    <t>路航 205/45ZR17(88/XLW LS988)</t>
+  </si>
+  <si>
+    <t>路航 215/45ZR17(91W XL LS988)</t>
+  </si>
+  <si>
+    <t>路航 215/55ZR17(94W LS988)</t>
+  </si>
+  <si>
+    <t>路航 225/40ZR18(92W LS988)</t>
+  </si>
+  <si>
+    <t>路航 225/45ZR17(94W LS988)</t>
+  </si>
+  <si>
+    <t>路航 225/45ZR18(95/XLW LS988)</t>
+  </si>
+  <si>
+    <t>路航 225/50ZR17(98W LS988 UHP)</t>
+  </si>
+  <si>
+    <t>路航 225/50ZR16(92W LS988)</t>
+  </si>
+  <si>
+    <t>路航 235/40ZR18(97W LS988)</t>
+  </si>
+  <si>
+    <t>路航 235/45ZR17(97W LS988)</t>
+  </si>
+  <si>
+    <t>路航 245/45ZR17(95W LS988)</t>
+  </si>
+  <si>
+    <t>路航 245/45ZR18(100Y LS988 UHP)</t>
+  </si>
+  <si>
+    <t>路航 245/45ZR19(98Y LS988)</t>
+  </si>
+  <si>
+    <t>路航 245/50ZR18(100W LS988 UHP)</t>
+  </si>
+  <si>
+    <t>路航 255/45ZR18(99W LS988)</t>
+  </si>
+  <si>
+    <t>路航 255/55ZR18(109/XLW LS988)</t>
+  </si>
+  <si>
+    <t>路航 215/50ZR17 95W XL LS 588</t>
+  </si>
+  <si>
+    <t>路航 215/55ZR17 94W LS 588</t>
+  </si>
+  <si>
+    <t>路航 215/60R17 96H LS 588</t>
+  </si>
+  <si>
+    <t>路航 225/50ZR17 98W/XL LS 588</t>
+  </si>
+  <si>
+    <t>路航 225/55ZR18 102/XLW LS 588</t>
+  </si>
+  <si>
+    <t>路航 225/55ZR17 101/XLW LS 588</t>
+  </si>
+  <si>
+    <t>路航 225/65R17 102H LS 588</t>
+  </si>
+  <si>
+    <t>路航 235/45ZR18 98W LS 588</t>
+  </si>
+  <si>
+    <t>路航 235/55ZR19 105/XLW LS 588</t>
+  </si>
+  <si>
+    <t>路航 235/55R18 104V XL LS 588</t>
+  </si>
+  <si>
+    <t>路航 235/60R18 107/XLV LS 588</t>
+  </si>
+  <si>
+    <t>路航 245/55ZR19 103W LS 588</t>
+  </si>
+  <si>
+    <t>路航 255/55ZR18 109W LS 588</t>
+  </si>
+  <si>
+    <t>路航 265/50ZR19 110Y LS 588</t>
+  </si>
+  <si>
+    <t>路航 225/40ZR18 94W LS 588</t>
+  </si>
+  <si>
+    <t>路航 235/45ZR17 97W LS 588</t>
+  </si>
+  <si>
+    <t>路航 255/40ZR18 99W LS 588</t>
+  </si>
+  <si>
+    <t>路航 225/40ZR18 92W LS 588</t>
+  </si>
+  <si>
+    <t>路航 275/45ZR20 110V LS 588</t>
+  </si>
+  <si>
+    <t>路航 255/50R19 103W LS 588</t>
+  </si>
+  <si>
+    <t>路航 275/45R20  103W LS 588</t>
+  </si>
+  <si>
+    <t>路航 315/35ZR20  110/XLW LS 588</t>
+  </si>
+  <si>
+    <t>路航 205/45ZR17(LS988 RSC)-防爆胎</t>
+  </si>
+  <si>
+    <t>路航 225/50ZR17(98/XLW RSC)-防爆胎 LS 988</t>
+  </si>
+  <si>
+    <t>路航 195/55R16 87V LS388   RSC</t>
+  </si>
+  <si>
+    <t>路航 205/55ZR16 91W LS388   RSC</t>
+  </si>
+  <si>
+    <t>路航 LH 225/50R17(94W LS388 RSC)-防爆胎</t>
+  </si>
+  <si>
+    <t>路航 LH 225/55R17(97Y LS388RSC)-防爆胎</t>
+  </si>
+  <si>
+    <t>路航 205/50ZR17 89W LS388   RSC</t>
+  </si>
+  <si>
+    <t>路航 225/45ZR17 91W LS388   RSC</t>
+  </si>
+  <si>
+    <t>路航 225/40ZR18 88W LS588     RSC</t>
+  </si>
+  <si>
+    <t>路航 LH 245/50ZR18 (100Y LS588@RSC)</t>
+  </si>
+  <si>
+    <t>路航 245/40ZR18 93Y LS588     RSC</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 165/70R13 79H LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 165/65R13 77H LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 165/70R14 81H LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 165/65R14 79H LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/70R13 82H LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/70R14 82H LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/65R14 82H LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185/60R14 82H LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185/70R14 82H LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/60R15 91H LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/60R14 86H LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185/65R15 88V LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/60R15 88V LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/65R15 91V LS188');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/70R14 91H LS288');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/70R14 98H/XL LS288');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/70R15 98H LS288');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/75R15 100H CLV3');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LH 235/75R15(100T CLV3)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/70R16 111T XL CLV3');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 265/70R16 112T CLV3');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/70R14 88H LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185/65R14  86H LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/65R14 82H LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/65R15 84H LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185/60R15 84H LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185/65R15 88H LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LH 185/55R16(85V LS388)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LH 195/55R16(91W LS388)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/55R15 85V LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/60R15 88V LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/65R15 91V LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/65R15 94H LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/60R16 89H LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/60R15 91V LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/55R16 91W LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/45R17 88W LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/60R16 92V LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/65R16  95V LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/55R16 97W/XL LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/60R16 95V LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/60R17 100V LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/60R18 104V LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/50R17 95W LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/65R16 98H LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/55R16 99W/XL LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/60R16 98H LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/55ZR17 98W LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/50ZR17 98W/XL LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/55R17 101W XL LS388');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185R14C-8PR LSV88');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195R14C-8PR LSV88');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/70R15C-8PR LSV88');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/65R16C-8PR LSV88');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 165/70R14LT-6PR LSV98');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/70R14LT-6PR LSV98');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175R14LT-6PR LSV98');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LT225/75R15-6PR CLV1');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LT235/75R15-6PR CLV1');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/70R16 111T/XL CLV1');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 265/70R16 112H CLV1');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/60R16 100H CLV2');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/60R17 99H CLV2');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/65R17 102H CLV2');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/55R17 99V CLV2');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/65R17 108H/XL CLV2');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 265/65R17 112H CLV2');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/55R18(104V XL CLV2)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/60R18(107V CLV2)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/40ZR17(84/XLW LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/45ZR17(88/XLW LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/45ZR17(91W XL LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/55ZR17(94W LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/40ZR18(92W LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/45ZR17(94W LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/45ZR18(95/XLW LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/50ZR17(98W LS988 UHP)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/50ZR16(92W LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/40ZR18(97W LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/45ZR17(97W LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/45ZR17(95W LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/45ZR18(100Y LS988 UHP)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/45ZR19(98Y LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/50ZR18(100W LS988 UHP)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 255/45ZR18(99W LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 255/55ZR18(109/XLW LS988)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/50ZR17 95W XL LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/55ZR17 94W LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/60R17 96H LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/50ZR17 98W/XL LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/55ZR18 102/XLW LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/55ZR17 101/XLW LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/65R17 102H LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/45ZR18 98W LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/55ZR19 105/XLW LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/55R18 104V XL LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/60R18 107/XLV LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/55ZR19 103W LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 255/55ZR18 109W LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 265/50ZR19 110Y LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/40ZR18 94W LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/45ZR17 97W LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 255/40ZR18 99W LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/40ZR18 92W LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 275/45ZR20 110V LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 255/50R19 103W LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 275/45R20  103W LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 315/35ZR20  110/XLW LS 588');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/45ZR17(LS988 RSC)-防爆胎');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/50ZR17(98/XLW RSC)-防爆胎 LS 988');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/55R16 87V LS388   RSC');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/55ZR16 91W LS388   RSC');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LH 225/50R17(94W LS388 RSC)-防爆胎');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LH 225/55R17(97Y LS388RSC)-防爆胎');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/50ZR17 89W LS388   RSC');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/45ZR17 91W LS388   RSC');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/40ZR18 88W LS588     RSC');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LH 245/50ZR18 (100Y LS588@RSC)');</t>
+  </si>
+  <si>
+    <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/40ZR18 93Y LS588     RSC');</t>
   </si>
 </sst>
 </file>
@@ -6203,7 +6918,7 @@
     <numFmt numFmtId="178" formatCode="0;[Red]0"/>
     <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6388,6 +7103,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -6562,7 +7284,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6768,6 +7490,9 @@
     </xf>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7070,8 +7795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:XFD430"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -37302,7 +38027,7 @@
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
+    <row r="1" spans="1:7">
       <c r="A1" s="45" t="s">
         <v>402</v>
       </c>
@@ -38728,7 +39453,7 @@
         <v>回力 175/70R14LT 95/93S CR18 W14181</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="24">
+    <row r="66" spans="1:7">
       <c r="A66" s="48" t="s">
         <v>537</v>
       </c>
@@ -39456,7 +40181,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -39488,7 +40213,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:E65" si="0">CONCATENATE(A2,B2,C2)</f>
+        <f t="shared" ref="D2:D65" si="0">CONCATENATE(A2,B2,C2)</f>
         <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '回力 165/65R13 77T R29 W13171');</v>
       </c>
       <c r="E2" t="s">
@@ -40640,7 +41365,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:E96" si="1">CONCATENATE(A66,B66,C66)</f>
+        <f t="shared" ref="D66:D96" si="1">CONCATENATE(A66,B66,C66)</f>
         <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '回力 LT 195/70R15 104/102Q  CR18 W12481');</v>
       </c>
       <c r="E66" t="s">
@@ -42697,4 +43422,2168 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="70.25" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="5.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE(A1,B1,C1)</f>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 165/70R13 79H LS188');</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D65" si="0">CONCATENATE(A2,B2,C2)</f>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 165/65R13 77H LS188');</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 165/70R14 81H LS188');</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 165/65R14 79H LS188');</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/70R13 82H LS188');</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/70R14 82H LS188');</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/65R14 82H LS188');</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185/60R14 82H LS188');</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185/70R14 82H LS188');</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/60R15 91H LS188');</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/60R14 86H LS188');</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185/65R15 88V LS188');</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/60R15 88V LS188');</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/65R15 91V LS188');</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/70R14 91H LS288');</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/70R14 98H/XL LS288');</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/70R15 98H LS288');</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/75R15 100H CLV3');</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LH 235/75R15(100T CLV3)');</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/70R16 111T XL CLV3');</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 265/70R16 112T CLV3');</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/70R14 88H LS388');</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185/65R14  86H LS388');</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/65R14 82H LS388');</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/65R15 84H LS388');</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185/60R15 84H LS388');</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185/65R15 88H LS388');</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LH 185/55R16(85V LS388)');</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LH 195/55R16(91W LS388)');</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/55R15 85V LS388');</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/60R15 88V LS388');</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/65R15 91V LS388');</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/65R15 94H LS388');</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/60R16 89H LS388');</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/60R15 91V LS388');</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/55R16 91W LS388');</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/45R17 88W LS388');</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/60R16 92V LS388');</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/65R16  95V LS388');</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/55R16 97W/XL LS388');</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/60R16 95V LS388');</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/60R17 100V LS388');</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/60R18 104V LS388');</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B44" s="70" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/50R17 95W LS388');</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B45" s="70" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/65R16 98H LS388');</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B46" s="70" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/55R16 99W/XL LS388');</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B47" s="70" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/60R16 98H LS388');</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B48" s="70" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/55ZR17 98W LS388');</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B49" s="70" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/50ZR17 98W/XL LS388');</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B50" s="70" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/55R17 101W XL LS388');</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B51" s="70" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 185R14C-8PR LSV88');</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B52" s="70" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195R14C-8PR LSV88');</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B53" s="70" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/70R15C-8PR LSV88');</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B54" s="70" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/65R16C-8PR LSV88');</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B55" s="70" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 165/70R14LT-6PR LSV98');</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B56" s="70" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175/70R14LT-6PR LSV98');</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B57" s="70" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 175R14LT-6PR LSV98');</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B58" s="70" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LT225/75R15-6PR CLV1');</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B59" s="70" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LT235/75R15-6PR CLV1');</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/70R16 111T/XL CLV1');</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B61" s="70" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 265/70R16 112H CLV1');</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B62" s="70" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/60R16 100H CLV2');</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/60R17 99H CLV2');</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B64" s="70" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/65R17 102H CLV2');</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B65" s="70" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/55R17 99V CLV2');</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B66" s="70" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D119" si="1">CONCATENATE(A66,B66,C66)</f>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/65R17 108H/XL CLV2');</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B67" s="70" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 265/65R17 112H CLV2');</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B68" s="70" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/55R18(104V XL CLV2)');</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B69" s="70" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/60R18(107V CLV2)');</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B70" s="70" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/40ZR17(84/XLW LS988)');</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B71" s="70" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/45ZR17(88/XLW LS988)');</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B72" s="70" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/45ZR17(91W XL LS988)');</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B73" s="70" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/55ZR17(94W LS988)');</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B74" s="70" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/40ZR18(92W LS988)');</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B75" s="70" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/45ZR17(94W LS988)');</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B76" s="70" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/45ZR18(95/XLW LS988)');</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B77" s="70" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/50ZR17(98W LS988 UHP)');</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B78" s="70" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/50ZR16(92W LS988)');</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B79" s="70" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/40ZR18(97W LS988)');</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B80" s="70" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/45ZR17(97W LS988)');</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B81" s="70" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/45ZR17(95W LS988)');</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B82" s="70" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/45ZR18(100Y LS988 UHP)');</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B83" s="70" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/45ZR19(98Y LS988)');</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B84" s="70" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/50ZR18(100W LS988 UHP)');</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B85" s="70" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 255/45ZR18(99W LS988)');</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B86" s="70" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 255/55ZR18(109/XLW LS988)');</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B87" s="70" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/50ZR17 95W XL LS 588');</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B88" s="70" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/55ZR17 94W LS 588');</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B89" s="70" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 215/60R17 96H LS 588');</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B90" s="70" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/50ZR17 98W/XL LS 588');</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B91" s="70" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/55ZR18 102/XLW LS 588');</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B92" s="70" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/55ZR17 101/XLW LS 588');</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B93" s="70" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/65R17 102H LS 588');</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B94" s="70" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/45ZR18 98W LS 588');</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B95" s="70" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/55ZR19 105/XLW LS 588');</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B96" s="70" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/55R18 104V XL LS 588');</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B97" s="70" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/60R18 107/XLV LS 588');</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B98" s="70" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/55ZR19 103W LS 588');</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B99" s="70" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 255/55ZR18 109W LS 588');</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B100" s="70" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 265/50ZR19 110Y LS 588');</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B101" s="70" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/40ZR18 94W LS 588');</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B102" s="70" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 235/45ZR17 97W LS 588');</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B103" s="70" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 255/40ZR18 99W LS 588');</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B104" s="70" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/40ZR18 92W LS 588');</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B105" s="70" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 275/45ZR20 110V LS 588');</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B106" s="70" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 255/50R19 103W LS 588');</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B107" s="70" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 275/45R20  103W LS 588');</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B108" s="70" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 315/35ZR20  110/XLW LS 588');</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B109" s="70" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/45ZR17(LS988 RSC)-防爆胎');</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B110" s="70" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/50ZR17(98/XLW RSC)-防爆胎 LS 988');</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B111" s="70" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 195/55R16 87V LS388   RSC');</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B112" s="70" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/55ZR16 91W LS388   RSC');</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B113" s="70" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LH 225/50R17(94W LS388 RSC)-防爆胎');</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B114" s="70" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LH 225/55R17(97Y LS388RSC)-防爆胎');</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B115" s="70" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 205/50ZR17 89W LS388   RSC');</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B116" s="70" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/45ZR17 91W LS388   RSC');</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B117" s="70" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 225/40ZR18 88W LS588     RSC');</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B118" s="70" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 LH 245/50ZR18 (100Y LS588@RSC)');</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B119" s="70" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/40ZR18 93Y LS588     RSC');</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/michelin_catalog.xlsx
+++ b/data/michelin_catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="390" windowWidth="15915" windowHeight="7320" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="390" windowWidth="15915" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6724" uniqueCount="2228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6724" uniqueCount="2229">
   <si>
     <t>');</t>
   </si>
@@ -6906,6 +6906,10 @@
   </si>
   <si>
     <t>INSERT INTO `item` (`created_on`, `description`, `name`) VALUES (NOW(), '', '路航 245/40ZR18 93Y LS588     RSC');</t>
+  </si>
+  <si>
+    <t>米其林 235/45R18 PILOT SPORT 3 ST RP 94V  RP 862518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7052,6 +7056,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -7071,6 +7076,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7795,8 +7801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E597"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="B436" sqref="B436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15641,7 +15647,7 @@
         <v>1295</v>
       </c>
       <c r="B436" t="s">
-        <v>1133</v>
+        <v>2228</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>0</v>
@@ -43428,8 +43434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E119"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
